--- a/Question 1/results/audio_analysis_summary.xlsx
+++ b/Question 1/results/audio_analysis_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,130 +503,431 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sample3.wav</t>
+          <t>Encouraging.wav</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.17387755102041</v>
+        <v>5.568</v>
       </c>
       <c r="C2" t="n">
-        <v>44100</v>
+        <v>48000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52587890625</v>
+        <v>0.8456979990005493</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.52587890625</v>
+        <v>-0.8456979990005493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08587051928043365</v>
+        <v>0.1212233379483223</v>
       </c>
       <c r="G2" t="n">
-        <v>0.231658399105072</v>
+        <v>0.3715658187866211</v>
       </c>
       <c r="H2" t="n">
-        <v>15.19746031746032</v>
+        <v>1.717333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05244264764300847</v>
+        <v>0.05063187141491396</v>
       </c>
       <c r="J2" t="n">
-        <v>268.4955672065415</v>
+        <v>131.1604791887788</v>
       </c>
       <c r="K2" t="n">
-        <v>87.81282249923149</v>
+        <v>136.9994584594705</v>
       </c>
       <c r="L2" t="n">
-        <v>65.40639132514966</v>
+        <v>79.1413469005951</v>
       </c>
       <c r="M2" t="n">
-        <v>1070.96309203012</v>
+        <v>192.6305945092948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sample2.wav</t>
+          <t>Sarcasm.wav</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.586938775510204</v>
+        <v>5.312</v>
       </c>
       <c r="C3" t="n">
-        <v>44100</v>
+        <v>48000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.523529052734375</v>
+        <v>0.834434449672699</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4688720703125</v>
+        <v>-0.834434449672699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06244809553027153</v>
+        <v>0.1367713660001755</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2300755381584167</v>
+        <v>0.3638573586940765</v>
       </c>
       <c r="H3" t="n">
-        <v>7.418775510204082</v>
+        <v>4.117333333333334</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01564982786016949</v>
+        <v>0.04848270760270541</v>
       </c>
       <c r="J3" t="n">
-        <v>155.8056269467449</v>
+        <v>135.0045323726338</v>
       </c>
       <c r="K3" t="n">
-        <v>102.6336290690488</v>
+        <v>127.08879665595</v>
       </c>
       <c r="L3" t="n">
-        <v>65.40639132514966</v>
+        <v>82.40688922821748</v>
       </c>
       <c r="M3" t="n">
-        <v>267.74077300753</v>
+        <v>312.9293240034019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sample1.wav</t>
+          <t>Doubtful.wav</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.78258503401361</v>
+        <v>5.12</v>
       </c>
       <c r="C4" t="n">
-        <v>44100</v>
+        <v>48000</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246429443359375</v>
+        <v>0.948452889919281</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.246429443359375</v>
+        <v>-0.948452889919281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0509299710392952</v>
+        <v>0.122788317501545</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07848048210144043</v>
+        <v>0.2911811769008636</v>
       </c>
       <c r="H4" t="n">
-        <v>11.3081179138322</v>
+        <v>3.381333333333334</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09467073360934664</v>
+        <v>0.05906781932172557</v>
       </c>
       <c r="J4" t="n">
-        <v>447.5794172303081</v>
+        <v>126.3944141931523</v>
       </c>
       <c r="K4" t="n">
-        <v>439.9999999999999</v>
+        <v>119.9558505931783</v>
       </c>
       <c r="L4" t="n">
-        <v>261.6255653005986</v>
+        <v>95.20902171067573</v>
       </c>
       <c r="M4" t="n">
-        <v>526.2822935644576</v>
+        <v>205.2672581380976</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Curious.wav</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.314666666666667</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8475927710533142</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.8475927710533142</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.103619746863842</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3237325847148895</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.381333333333334</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.04617345594435076</v>
+      </c>
+      <c r="J5" t="n">
+        <v>125.2407655860892</v>
+      </c>
+      <c r="K5" t="n">
+        <v>124.9075709264297</v>
+      </c>
+      <c r="L5" t="n">
+        <v>82.40688922821748</v>
+      </c>
+      <c r="M5" t="n">
+        <v>193.7464921911526</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Disappointed .wav</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C6" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.898636519908905</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.8880320191383362</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1322593688964844</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3465062379837036</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8426666666666667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05417955067863398</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126.0163840353381</v>
+      </c>
+      <c r="K6" t="n">
+        <v>124.9054871977965</v>
+      </c>
+      <c r="L6" t="n">
+        <v>89.3477635991859</v>
+      </c>
+      <c r="M6" t="n">
+        <v>156.464662001701</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Excited.wav</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.226666666666667</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6024489402770996</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.5632633566856384</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06293019652366638</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1606658101081848</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07195336367107943</v>
+      </c>
+      <c r="J7" t="n">
+        <v>150.7143487301779</v>
+      </c>
+      <c r="K7" t="n">
+        <v>131.5705733911144</v>
+      </c>
+      <c r="L7" t="n">
+        <v>82.88426748110167</v>
+      </c>
+      <c r="M7" t="n">
+        <v>508.3551866238001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Confident.wav</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.845333333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8760937452316284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.8384012579917908</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1167273372411728</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3060956597328186</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.413333333333334</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05512241717896175</v>
+      </c>
+      <c r="J8" t="n">
+        <v>127.7239038427451</v>
+      </c>
+      <c r="K8" t="n">
+        <v>121.3496704380121</v>
+      </c>
+      <c r="L8" t="n">
+        <v>80.5247132770094</v>
+      </c>
+      <c r="M8" t="n">
+        <v>195.9977179908746</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Frustrated.wav</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.888299286365509</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.8473532795906067</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1333269476890564</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3363730907440186</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.501333333333333</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.04287637246621621</v>
+      </c>
+      <c r="J9" t="n">
+        <v>130.2869361804948</v>
+      </c>
+      <c r="K9" t="n">
+        <v>122.7596856893246</v>
+      </c>
+      <c r="L9" t="n">
+        <v>87.81282249923149</v>
+      </c>
+      <c r="M9" t="n">
+        <v>186.0688892989187</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nervous.wav</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8694823980331421</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.8694823980331421</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.118180513381958</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2986360192298889</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.448</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.04084644350343053</v>
+      </c>
+      <c r="J10" t="n">
+        <v>115.0121460646585</v>
+      </c>
+      <c r="K10" t="n">
+        <v>116.5409403795225</v>
+      </c>
+      <c r="L10" t="n">
+        <v>78.23233100085048</v>
+      </c>
+      <c r="M10" t="n">
+        <v>147.682975305829</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Surprise.wav</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.461333333333333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6385675072669983</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.6385675072669983</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05742619931697845</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1638865768909454</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4373333333333334</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.06186133193226121</v>
+      </c>
+      <c r="J11" t="n">
+        <v>118.2190377675252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>114.5388367788287</v>
+      </c>
+      <c r="L11" t="n">
+        <v>91.43616857570666</v>
+      </c>
+      <c r="M11" t="n">
+        <v>176.6430340099428</v>
       </c>
     </row>
   </sheetData>
